--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1811.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1811.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.179311771798673</v>
+        <v>0.9136176705360413</v>
       </c>
       <c r="B1">
-        <v>2.338283978002678</v>
+        <v>1.564281940460205</v>
       </c>
       <c r="C1">
-        <v>3.518628438864531</v>
+        <v>6.000051021575928</v>
       </c>
       <c r="D1">
-        <v>3.328244804837988</v>
+        <v>1.801077961921692</v>
       </c>
       <c r="E1">
-        <v>1.155303723027686</v>
+        <v>1.093969583511353</v>
       </c>
     </row>
   </sheetData>
